--- a/Lab 2 Schedule.xlsx
+++ b/Lab 2 Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Documents\GitHub\SMU_7331_ML1_Project_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae37a96306b086c5/___SMU/GIT/ML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BBADF93-DFE7-4526-9E18-34CDDEB6A0F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{0BBADF93-DFE7-4526-9E18-34CDDEB6A0F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EDB1BA86-F2CF-431A-B312-D595BD5BA1C4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28B6BAFC-17CE-49D4-A3C8-DB8C3A1147C4}"/>
+    <workbookView xWindow="-23160" yWindow="420" windowWidth="23280" windowHeight="15000" xr2:uid="{28B6BAFC-17CE-49D4-A3C8-DB8C3A1147C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>Jake</t>
   </si>
@@ -94,6 +94,60 @@
   </si>
   <si>
     <t>5pm</t>
+  </si>
+  <si>
+    <t>1pm</t>
+  </si>
+  <si>
+    <t>8:30 PM</t>
+  </si>
+  <si>
+    <t>AFTER CLASS</t>
+  </si>
+  <si>
+    <t>collective availability</t>
+  </si>
+  <si>
+    <t>dental appt</t>
+  </si>
+  <si>
+    <t>visitors</t>
+  </si>
+  <si>
+    <t>LOGISTIC REGRESSION</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>JAKE</t>
+  </si>
+  <si>
+    <t>LOLA</t>
+  </si>
+  <si>
+    <t>HYPERPARAMETER TUNING LOG REGRESSION</t>
+  </si>
+  <si>
+    <t>INTERPRET THE LOG REGRESSION COEFF</t>
+  </si>
+  <si>
+    <t>INTERPRET SUPPORT VECTORS</t>
+  </si>
+  <si>
+    <t>ALLEN</t>
+  </si>
+  <si>
+    <t>ADVANTAGES LOG REGRESSION</t>
+  </si>
+  <si>
+    <t>ADVANTAGES SVM</t>
+  </si>
+  <si>
+    <t>HYPERPARAMETER TUNING SVM</t>
   </si>
 </sst>
 </file>
@@ -307,21 +361,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -332,6 +378,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,24 +704,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3CEB9D-CD08-4899-A3A5-098B1F13F320}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
     <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1">
@@ -757,141 +817,157 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="8"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
       <c r="P3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
       <c r="P4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
       <c r="P5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
       <c r="P6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="18"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="14"/>
       <c r="P7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="K8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15" t="s">
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="P8" t="s">
@@ -902,45 +978,141 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
       <c r="P10" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
